--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D9BB7-3C47-9345-B461-291DE4AE8C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5450D9-2248-7149-AC32-430EF7876C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
@@ -507,6 +507,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,87 +595,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59049483-83BC-394D-BD70-81543C39E257}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,782 +930,782 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1" s="29">
         <v>2016</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="29">
         <v>2017</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="21">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>14</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>-12</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="21">
+      <c r="D7" s="20"/>
+      <c r="E7" s="18">
         <v>9</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>-7</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>3</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>-3</v>
       </c>
-      <c r="D12" s="31">
-        <v>1</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30">
-        <v>1</v>
-      </c>
-      <c r="G12" s="31"/>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="25">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="23">
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="20">
         <v>-2</v>
       </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-      <c r="F13" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="20">
         <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>4</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="27">
         <v>-5</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="28">
         <v>-2</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31">
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="25">
-        <v>1</v>
-      </c>
-      <c r="C17" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="25">
-        <v>1</v>
-      </c>
-      <c r="F17" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="23">
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="25">
-        <v>1</v>
-      </c>
-      <c r="F18" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="23"/>
+      <c r="B18" s="22">
+        <v>1</v>
+      </c>
+      <c r="C18" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="25">
-        <v>1</v>
-      </c>
-      <c r="C19" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D19" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23">
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="25">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="26">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="B20" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
         <v>-2</v>
       </c>
-      <c r="E20" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="E20" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
         <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="22">
         <v>2</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="23">
         <v>-2</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="25">
-        <v>1</v>
-      </c>
-      <c r="F23" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="23"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="23"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31">
-        <v>-1</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25">
-        <v>1</v>
-      </c>
-      <c r="C32" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="18">
         <v>4</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="19">
         <v>-5</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="21">
+      <c r="D33" s="20"/>
+      <c r="E33" s="18">
         <v>4</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="19">
         <v>-5</v>
       </c>
-      <c r="G33" s="23"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="18">
         <v>3</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="19">
         <v>-4</v>
       </c>
-      <c r="D35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="21">
-        <v>1</v>
-      </c>
-      <c r="F35" s="22">
+      <c r="D35" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19">
         <v>-2</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="25">
-        <v>-1</v>
-      </c>
-      <c r="C36" s="26">
-        <v>1</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="B36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20">
         <v>-3</v>
       </c>
-      <c r="E36" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="26">
-        <v>1</v>
-      </c>
-      <c r="G36" s="23">
+      <c r="E36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="23">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20">
         <v>-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="25">
-        <v>1</v>
-      </c>
-      <c r="C38" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="25">
-        <v>1</v>
-      </c>
-      <c r="F38" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="27"/>
+      <c r="B38" s="22">
+        <v>1</v>
+      </c>
+      <c r="C38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31">
-        <v>1</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="29">
-        <v>1</v>
-      </c>
-      <c r="C46" s="30">
-        <v>-1</v>
-      </c>
-      <c r="D46" s="31">
-        <v>1</v>
-      </c>
-      <c r="E46" s="29">
-        <v>1</v>
-      </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31">
+      <c r="B46" s="26">
+        <v>1</v>
+      </c>
+      <c r="C46" s="27">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="28">
+        <v>1</v>
+      </c>
+      <c r="E46" s="26">
+        <v>1</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="25">
-        <v>1</v>
-      </c>
-      <c r="C48" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
+      <c r="B48" s="22">
+        <v>1</v>
+      </c>
+      <c r="C48" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="25">
-        <v>1</v>
-      </c>
-      <c r="C49" s="26">
-        <v>-1</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="25">
-        <v>1</v>
-      </c>
-      <c r="F49" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="27"/>
+      <c r="B49" s="22">
+        <v>1</v>
+      </c>
+      <c r="C49" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="22">
+        <v>1</v>
+      </c>
+      <c r="F49" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="22">
         <v>2</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="23">
         <v>-2</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="25">
-        <v>1</v>
-      </c>
-      <c r="F52" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G52" s="27"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="22">
+        <v>1</v>
+      </c>
+      <c r="F52" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5450D9-2248-7149-AC32-430EF7876C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8856D681-3272-2740-A039-BFAC76C32E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
   <si>
     <t>State</t>
   </si>
@@ -198,6 +200,21 @@
   </si>
   <si>
     <t>IL</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Openings</t>
+  </si>
+  <si>
+    <t>Closings</t>
+  </si>
+  <si>
+    <t>[January 31, 2016 - January 31, 2017]</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -245,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -498,11 +515,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,6 +643,123 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59049483-83BC-394D-BD70-81543C39E257}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,16 +1095,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="29">
+      <c r="B1" s="50">
         <v>2016</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="29">
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="50">
         <v>2017</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1706,6 +1871,1890 @@
       <c r="E53" s="14"/>
       <c r="F53" s="15"/>
       <c r="G53" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA7E32C-31E4-6542-B3C1-715BAA3D8E4C}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="40">
+        <v>5</v>
+      </c>
+      <c r="E4" s="42">
+        <f>SUM(B4:D4)</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44">
+        <f>SUM(F4:H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="42">
+        <f t="shared" ref="E5:E54" si="0">SUM(B5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46">
+        <f>SUM(F5:H5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46">
+        <f t="shared" ref="I6:I54" si="1">SUM(F6:H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
+        <v>4</v>
+      </c>
+      <c r="E7" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33">
+        <v>2</v>
+      </c>
+      <c r="E9" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33">
+        <v>1</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="32">
+        <v>5</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33">
+        <v>13</v>
+      </c>
+      <c r="E13" s="42">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33">
+        <v>2</v>
+      </c>
+      <c r="E14" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33">
+        <v>1</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32">
+        <v>2</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33">
+        <v>1</v>
+      </c>
+      <c r="E21" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33">
+        <v>3</v>
+      </c>
+      <c r="E22" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33">
+        <v>3</v>
+      </c>
+      <c r="E28" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33">
+        <v>1</v>
+      </c>
+      <c r="E29" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33">
+        <v>2</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32">
+        <v>2</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33">
+        <v>2</v>
+      </c>
+      <c r="E35" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32">
+        <v>2</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33">
+        <v>3</v>
+      </c>
+      <c r="E37" s="42">
+        <f>SUM(B37:D37)</f>
+        <v>5</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="32">
+        <v>2</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33">
+        <v>2</v>
+      </c>
+      <c r="E40" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46">
+        <f>SUM(F40:H40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="32">
+        <v>1</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="32">
+        <v>2</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33">
+        <v>7</v>
+      </c>
+      <c r="E44" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="32">
+        <v>1</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="32">
+        <v>2</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33">
+        <v>2</v>
+      </c>
+      <c r="E46" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="32">
+        <v>7</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33">
+        <v>16</v>
+      </c>
+      <c r="E47" s="42">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33">
+        <v>2</v>
+      </c>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="32">
+        <v>1</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="32">
+        <v>2</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33">
+        <v>3</v>
+      </c>
+      <c r="E50" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="49">
+        <f>SUM(E4:E54)</f>
+        <v>108</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49">
+        <f t="shared" ref="I55" si="2">SUM(I4:I54)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f>E55+I55</f>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="57">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="68">
+        <v>1</v>
+      </c>
+      <c r="C6" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="68">
+        <v>19</v>
+      </c>
+      <c r="C7" s="69">
+        <v>-17</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69">
+        <f>---1</f>
+        <v>-1</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="68">
+        <v>4</v>
+      </c>
+      <c r="C12" s="69">
+        <v>-4</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="68">
+        <v>1</v>
+      </c>
+      <c r="C13" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="68">
+        <v>1</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="68">
+        <v>5</v>
+      </c>
+      <c r="C16" s="69">
+        <v>-6</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="68">
+        <v>2</v>
+      </c>
+      <c r="C17" s="69">
+        <v>-2</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="68">
+        <v>1</v>
+      </c>
+      <c r="C18" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="68">
+        <v>1</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="68">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="69">
+        <v>1</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="68">
+        <v>3</v>
+      </c>
+      <c r="C23" s="69">
+        <v>-3</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="68">
+        <v>1</v>
+      </c>
+      <c r="C24" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="68">
+        <v>1</v>
+      </c>
+      <c r="C25" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="68">
+        <v>1</v>
+      </c>
+      <c r="C26" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="68">
+        <v>2</v>
+      </c>
+      <c r="C32" s="69">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="68">
+        <v>4</v>
+      </c>
+      <c r="C33" s="69">
+        <v>-4</v>
+      </c>
+      <c r="D33" s="70"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="68">
+        <v>4</v>
+      </c>
+      <c r="C35" s="69">
+        <v>-5</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="68">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="69">
+        <v>1</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="70"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="70"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="70"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="70"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="68"/>
+      <c r="C41" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="70"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="68">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="70"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="70"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="68">
+        <v>1</v>
+      </c>
+      <c r="C46" s="69">
+        <v>-3</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="70"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="70"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="68">
+        <v>1</v>
+      </c>
+      <c r="C48" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="70"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="68">
+        <v>1</v>
+      </c>
+      <c r="C49" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="70"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="68">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="70"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="68">
+        <v>3</v>
+      </c>
+      <c r="C52" s="69">
+        <v>-3</v>
+      </c>
+      <c r="D52" s="70"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="70"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="74"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8856D681-3272-2740-A039-BFAC76C32E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4677E03F-0D59-3041-9C38-163F76DD2AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="59">
   <si>
     <t>State</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>[January 31, 2016 - January 31, 2017]</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -230,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -550,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,6 +690,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,63 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,7 +1037,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,16 +1053,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="50">
+      <c r="B1" s="54">
         <v>2016</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="50">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54">
         <v>2017</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1886,7 +1844,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1903,31 +1861,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3043,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="133" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3058,708 +3016,1070 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="54">
         <v>2015</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="57">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54">
         <v>2016</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="62" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="54">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="62" t="s">
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68">
-        <v>1</v>
-      </c>
-      <c r="C6" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="B6" s="51">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="51">
         <v>19</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="52">
         <v>-17</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="D7" s="53">
+        <v>1</v>
+      </c>
+      <c r="E7" s="51">
+        <v>14</v>
+      </c>
+      <c r="F7" s="52">
+        <v>-12</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="51">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="I7" s="52">
+        <v>-7</v>
+      </c>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69">
-        <f>---1</f>
-        <v>-1</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="26">
         <v>4</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="27">
         <v>-4</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>-3</v>
+      </c>
+      <c r="G12" s="28">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27">
+        <v>1</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="68">
-        <v>1</v>
-      </c>
-      <c r="C13" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>-2</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="68">
-        <v>1</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="B15" s="51">
+        <v>1</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="26">
         <v>5</v>
       </c>
-      <c r="C16" s="69">
-        <v>-6</v>
-      </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="C16" s="27">
+        <v>-5</v>
+      </c>
+      <c r="D16" s="28">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="26">
+        <v>4</v>
+      </c>
+      <c r="F16" s="27">
+        <v>-5</v>
+      </c>
+      <c r="G16" s="28">
+        <v>-2</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="23">
         <v>-2</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="68">
-        <v>1</v>
-      </c>
-      <c r="C18" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="B18" s="22">
+        <v>1</v>
+      </c>
+      <c r="C18" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="68">
-        <v>1</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="B19" s="51">
+        <v>1</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53">
+        <v>-3</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="53">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="68">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="69">
-        <v>1</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="B20" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="53">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="22">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
+      <c r="J20" s="53">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53">
+        <v>-4</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="22">
         <v>3</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="23">
         <v>-3</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="68">
-        <v>1</v>
-      </c>
-      <c r="C24" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="68">
-        <v>1</v>
-      </c>
-      <c r="C25" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="68">
-        <v>1</v>
-      </c>
-      <c r="C26" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="B26" s="22">
+        <v>1</v>
+      </c>
+      <c r="C26" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="22">
         <v>2</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="23">
         <v>-2</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="68">
+      <c r="B33" s="22">
         <v>4</v>
       </c>
-      <c r="C33" s="69">
+      <c r="C33" s="23">
         <v>-4</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="70"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="51">
+        <v>4</v>
+      </c>
+      <c r="F33" s="52">
+        <v>-5</v>
+      </c>
+      <c r="G33" s="53"/>
+      <c r="H33" s="51">
+        <v>4</v>
+      </c>
+      <c r="I33" s="52">
+        <v>-5</v>
+      </c>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="70"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="68">
+      <c r="B35" s="51">
         <v>4</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="52">
         <v>-5</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="70"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="51">
+        <v>3</v>
+      </c>
+      <c r="F35" s="52">
+        <v>-4</v>
+      </c>
+      <c r="G35" s="53">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="51">
+        <v>1</v>
+      </c>
+      <c r="I35" s="52">
+        <v>-2</v>
+      </c>
+      <c r="J35" s="53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="68">
-        <v>-1</v>
-      </c>
-      <c r="C36" s="69">
-        <v>1</v>
-      </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="64" t="s">
+      <c r="B36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1</v>
+      </c>
+      <c r="D36" s="53">
+        <v>-17</v>
+      </c>
+      <c r="E36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="23">
+        <v>1</v>
+      </c>
+      <c r="G36" s="53">
+        <v>-3</v>
+      </c>
+      <c r="H36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="23">
+        <v>1</v>
+      </c>
+      <c r="J36" s="53">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="64" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="70"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="64" t="s">
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53">
+        <v>1</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="70"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="70"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
+      <c r="B41" s="51"/>
+      <c r="C41" s="52">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="53">
+        <v>1</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="64" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="68">
-        <v>-1</v>
-      </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="64" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="70"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="70"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="64" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28">
+        <v>1</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="68">
-        <v>1</v>
-      </c>
-      <c r="C46" s="69">
+      <c r="B46" s="26">
+        <v>1</v>
+      </c>
+      <c r="C46" s="27">
         <v>-3</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="70"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="64" t="s">
+      <c r="D46" s="28">
+        <v>5</v>
+      </c>
+      <c r="E46" s="26">
+        <v>1</v>
+      </c>
+      <c r="F46" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="28">
+        <v>1</v>
+      </c>
+      <c r="H46" s="26">
+        <v>1</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="68">
-        <v>1</v>
-      </c>
-      <c r="C48" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="64" t="s">
+      <c r="B48" s="22">
+        <v>1</v>
+      </c>
+      <c r="C48" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="22">
+        <v>1</v>
+      </c>
+      <c r="F48" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="68">
-        <v>1</v>
-      </c>
-      <c r="C49" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="64" t="s">
+      <c r="B49" s="22">
+        <v>1</v>
+      </c>
+      <c r="C49" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="53">
+        <v>3</v>
+      </c>
+      <c r="E49" s="22">
+        <v>1</v>
+      </c>
+      <c r="F49" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="53"/>
+      <c r="H49" s="22">
+        <v>1</v>
+      </c>
+      <c r="I49" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="53"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="64" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="68">
-        <v>-1</v>
-      </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
+      <c r="B51" s="51">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="53"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="68">
+      <c r="B52" s="22">
         <v>3</v>
       </c>
-      <c r="C52" s="69">
+      <c r="C52" s="23">
         <v>-3</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="70"/>
-    </row>
-    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="22">
+        <v>2</v>
+      </c>
+      <c r="F52" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="22">
+        <v>1</v>
+      </c>
+      <c r="I52" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4677E03F-0D59-3041-9C38-163F76DD2AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5413F0F-506D-8E49-8012-5E2ED8B23BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
@@ -3003,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="133" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3120,70 +3120,68 @@
       <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="51">
-        <v>1</v>
-      </c>
-      <c r="C6" s="52">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53">
-        <v>-1</v>
-      </c>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="26">
         <v>19</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="27">
         <v>-17</v>
       </c>
-      <c r="D7" s="53">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51">
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
         <v>14</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="27">
         <v>-12</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="51">
+      <c r="G7" s="28"/>
+      <c r="H7" s="26">
         <v>9</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="27">
         <v>-7</v>
       </c>
-      <c r="J7" s="53"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20">
         <v>-1</v>
       </c>
     </row>
@@ -3230,63 +3228,59 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>4</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="23">
         <v>-4</v>
       </c>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
         <v>3</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="23">
         <v>-3</v>
       </c>
-      <c r="G12" s="28">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27">
-        <v>1</v>
-      </c>
-      <c r="J12" s="28"/>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="22">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="B13" s="26">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="28">
         <v>-2</v>
       </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="20">
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="28">
         <v>-2</v>
       </c>
-      <c r="H13" s="22">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="20">
-        <v>-2</v>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3304,20 +3298,20 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="51">
-        <v>1</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="B15" s="26">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
@@ -3400,33 +3394,31 @@
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="51">
-        <v>1</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53">
-        <v>-3</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="53">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53">
-        <v>-1</v>
-      </c>
+      <c r="B19" s="26">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27">
+        <v>-2</v>
+      </c>
+      <c r="D19" s="28">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="22">
@@ -3435,41 +3427,37 @@
       <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="22">
         <v>-1</v>
       </c>
       <c r="F20" s="23">
         <v>1</v>
       </c>
-      <c r="G20" s="53">
-        <v>-2</v>
-      </c>
+      <c r="G20" s="24"/>
       <c r="H20" s="22">
         <v>-1</v>
       </c>
       <c r="I20" s="23">
         <v>1</v>
       </c>
-      <c r="J20" s="53">
-        <v>-2</v>
-      </c>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53">
-        <v>-4</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3566,22 +3554,20 @@
       <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19">
-        <v>-1</v>
-      </c>
-      <c r="J27" s="20"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5413F0F-506D-8E49-8012-5E2ED8B23BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CCF84-4A54-AC4F-B03A-EC0EA72DC03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="62">
   <si>
     <t>State</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>[January 31, 2016 - January 31, 2017]</t>
+  </si>
+  <si>
+    <t>MAIS il en reste un dont je trouve pas la date</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>RI</t>
   </si>
 </sst>
 </file>
@@ -553,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,12 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,16 +1056,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="54">
+      <c r="B1" s="52">
         <v>2016</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="52">
         <v>2017</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1861,31 +1864,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="54" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3001,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="133" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3023,21 +3026,21 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="54">
+      <c r="B1" s="52">
         <v>2015</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="52">
         <v>2016</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="54">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="52">
         <v>2017</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3341,7 +3344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3370,7 @@
       </c>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
@@ -3393,7 +3396,7 @@
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
@@ -3417,7 +3420,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -3443,7 +3446,7 @@
       </c>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
@@ -3459,7 +3462,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -3473,7 +3476,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -3499,7 +3502,7 @@
       </c>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
@@ -3517,7 +3520,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>25</v>
       </c>
@@ -3535,7 +3538,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>26</v>
       </c>
@@ -3553,7 +3556,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
@@ -3568,8 +3571,11 @@
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>28</v>
       </c>
@@ -3587,7 +3593,7 @@
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3601,7 +3607,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -3615,7 +3621,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3629,7 +3635,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>32</v>
       </c>
@@ -3651,8 +3657,8 @@
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="22">
@@ -3661,23 +3667,23 @@
       <c r="C33" s="23">
         <v>-4</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="51">
+      <c r="D33" s="24"/>
+      <c r="E33" s="22">
         <v>4</v>
       </c>
-      <c r="F33" s="52">
-        <v>-5</v>
-      </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="51">
+      <c r="F33" s="23">
+        <v>-4</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="22">
         <v>4</v>
       </c>
-      <c r="I33" s="52">
-        <v>-5</v>
-      </c>
-      <c r="J33" s="53"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="23">
+        <v>-4</v>
+      </c>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -3691,37 +3697,33 @@
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="22">
         <v>4</v>
       </c>
-      <c r="C35" s="52">
-        <v>-5</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="51">
+      <c r="C35" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="22">
         <v>3</v>
       </c>
-      <c r="F35" s="52">
-        <v>-4</v>
-      </c>
-      <c r="G35" s="53">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="51">
-        <v>1</v>
-      </c>
-      <c r="I35" s="52">
-        <v>-2</v>
-      </c>
-      <c r="J35" s="53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F35" s="23">
+        <v>-3</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="22">
+        <v>1</v>
+      </c>
+      <c r="I35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
         <v>36</v>
       </c>
@@ -3731,7 +3733,7 @@
       <c r="C36" s="23">
         <v>1</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="51">
         <v>-17</v>
       </c>
       <c r="E36" s="22">
@@ -3740,7 +3742,7 @@
       <c r="F36" s="23">
         <v>1</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="51">
         <v>-3</v>
       </c>
       <c r="H36" s="22">
@@ -3749,11 +3751,14 @@
       <c r="I36" s="23">
         <v>1</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="51">
         <v>-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3767,45 +3772,49 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="18">
-        <v>1</v>
-      </c>
-      <c r="F38" s="19">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="18">
-        <v>1</v>
-      </c>
-      <c r="I38" s="19">
-        <v>-1</v>
-      </c>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
+      <c r="B38" s="22">
+        <v>1</v>
+      </c>
+      <c r="C38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22">
+        <v>1</v>
+      </c>
+      <c r="I38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53">
-        <v>1</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -3819,27 +3828,35 @@
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="52">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="53">
-        <v>1</v>
-      </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="22"/>
+      <c r="C41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="24">
+        <v>1</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
@@ -3851,7 +3868,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -3864,8 +3881,11 @@
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -3879,7 +3899,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
@@ -3896,8 +3916,11 @@
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
       <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
@@ -3926,8 +3949,11 @@
       <c r="J46" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -3941,7 +3967,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>48</v>
       </c>
@@ -3964,32 +3990,32 @@
       <c r="J48" s="24"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="22">
-        <v>1</v>
-      </c>
-      <c r="C49" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D49" s="53">
+      <c r="B49" s="26">
+        <v>1</v>
+      </c>
+      <c r="C49" s="27">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="28">
         <v>3</v>
       </c>
-      <c r="E49" s="22">
-        <v>1</v>
-      </c>
-      <c r="F49" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="22">
-        <v>1</v>
-      </c>
-      <c r="I49" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J49" s="53"/>
+      <c r="E49" s="26">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="26">
+        <v>1</v>
+      </c>
+      <c r="I49" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -4006,20 +4032,20 @@
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="51">
-        <v>-1</v>
-      </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="53"/>
+      <c r="B51" s="26">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CCF84-4A54-AC4F-B03A-EC0EA72DC03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95712799-1D83-CA40-AD19-4BBC5C76EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>State</t>
   </si>
@@ -214,13 +214,19 @@
     <t>[January 31, 2016 - January 31, 2017]</t>
   </si>
   <si>
-    <t>MAIS il en reste un dont je trouve pas la date</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>RI</t>
+  </si>
+  <si>
+    <t>A REVOIR</t>
+  </si>
+  <si>
+    <t>BORDEL</t>
+  </si>
+  <si>
+    <t>1 ouvert avant qui a en fait ouvert après</t>
+  </si>
+  <si>
+    <t>INES</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,12 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,16 +1062,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="52">
+      <c r="B1" s="50">
         <v>2016</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="52">
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="50">
         <v>2017</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1864,31 +1870,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3006,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="133" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="141" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3024,25 +3030,25 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="52">
+      <c r="B1" s="50">
         <v>2015</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="52">
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="50">
         <v>2016</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="52">
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="50">
         <v>2017</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3094,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3102,7 +3108,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3128,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
@@ -3140,7 +3146,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>8</v>
       </c>
@@ -3150,7 +3156,7 @@
       <c r="C7" s="27">
         <v>-17</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="56">
         <v>1</v>
       </c>
       <c r="E7" s="26">
@@ -3167,8 +3173,11 @@
         <v>-7</v>
       </c>
       <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3202,7 +3211,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -3216,7 +3225,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -3230,7 +3239,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
@@ -3258,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
@@ -3268,7 +3277,7 @@
       <c r="C13" s="27">
         <v>-1</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="56">
         <v>-2</v>
       </c>
       <c r="E13" s="26">
@@ -3277,16 +3286,19 @@
       <c r="F13" s="27">
         <v>-1</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="56">
         <v>-2</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="56">
+        <v>-1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3300,11 +3312,11 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="57">
         <v>1</v>
       </c>
       <c r="C15" s="27"/>
@@ -3316,7 +3328,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>54</v>
       </c>
@@ -3452,7 +3464,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="28">
+      <c r="D21" s="56">
         <v>1</v>
       </c>
       <c r="E21" s="26"/>
@@ -3461,6 +3473,9 @@
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -3557,23 +3572,18 @@
       <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
-      <c r="K27" t="s">
-        <v>59</v>
-      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
@@ -3586,12 +3596,13 @@
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="28">
-        <v>-1</v>
-      </c>
+      <c r="G28" s="28"/>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
+      <c r="K28" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -3724,7 +3735,7 @@
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="22">
@@ -3733,8 +3744,8 @@
       <c r="C36" s="23">
         <v>1</v>
       </c>
-      <c r="D36" s="51">
-        <v>-17</v>
+      <c r="D36" s="20">
+        <v>-1</v>
       </c>
       <c r="E36" s="22">
         <v>-1</v>
@@ -3742,8 +3753,8 @@
       <c r="F36" s="23">
         <v>1</v>
       </c>
-      <c r="G36" s="51">
-        <v>-3</v>
+      <c r="G36" s="20">
+        <v>-1</v>
       </c>
       <c r="H36" s="22">
         <v>-1</v>
@@ -3751,11 +3762,8 @@
       <c r="I36" s="23">
         <v>1</v>
       </c>
-      <c r="J36" s="51">
-        <v>-3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>60</v>
+      <c r="J36" s="20">
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3799,20 +3807,18 @@
       <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28">
-        <v>1</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -3856,7 +3862,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
@@ -3881,9 +3887,6 @@
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
-      <c r="K43" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -3915,7 +3918,7 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
+      <c r="J45" s="56"/>
       <c r="K45" t="s">
         <v>60</v>
       </c>
@@ -3925,13 +3928,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="27">
         <v>-3</v>
       </c>
       <c r="D46" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E46" s="26">
         <v>1</v>
@@ -3950,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3989,7 +3992,7 @@
       <c r="I48" s="23"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
@@ -3999,8 +4002,8 @@
       <c r="C49" s="27">
         <v>-1</v>
       </c>
-      <c r="D49" s="28">
-        <v>3</v>
+      <c r="D49" s="56">
+        <v>1</v>
       </c>
       <c r="E49" s="26">
         <v>1</v>
@@ -4016,8 +4019,11 @@
         <v>-1</v>
       </c>
       <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -4031,23 +4037,21 @@
       <c r="I50" s="11"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="26">
-        <v>-1</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="28"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>52</v>
       </c>
@@ -4073,7 +4077,7 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>53</v>
       </c>

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95712799-1D83-CA40-AD19-4BBC5C76EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F58EB71-3AF6-314D-A42E-91221E681DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
   <si>
     <t>State</t>
   </si>
@@ -217,16 +217,10 @@
     <t>RI</t>
   </si>
   <si>
-    <t>A REVOIR</t>
-  </si>
-  <si>
-    <t>BORDEL</t>
-  </si>
-  <si>
     <t>1 ouvert avant qui a en fait ouvert après</t>
   </si>
   <si>
-    <t>INES</t>
+    <t>1 fermeture en 2016</t>
   </si>
 </sst>
 </file>
@@ -705,6 +699,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,12 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,16 +1056,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="50">
+      <c r="B1" s="52">
         <v>2016</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="50">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="52">
         <v>2017</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1870,31 +1864,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3012,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="141" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3032,21 +3026,21 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="50">
+      <c r="B1" s="52">
         <v>2015</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="50">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="52">
         <v>2016</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="50">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="52">
         <v>2017</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3156,7 +3150,7 @@
       <c r="C7" s="27">
         <v>-17</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="50">
         <v>1</v>
       </c>
       <c r="E7" s="26">
@@ -3173,9 +3167,6 @@
         <v>-7</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -3277,7 +3268,7 @@
       <c r="C13" s="27">
         <v>-1</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="50">
         <v>-2</v>
       </c>
       <c r="E13" s="26">
@@ -3286,16 +3277,16 @@
       <c r="F13" s="27">
         <v>-1</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="50">
         <v>-2</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="56">
+      <c r="J13" s="50">
         <v>-1</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3316,7 +3307,7 @@
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="51">
         <v>1</v>
       </c>
       <c r="C15" s="27"/>
@@ -3464,7 +3455,7 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="56">
+      <c r="D21" s="50">
         <v>1</v>
       </c>
       <c r="E21" s="26"/>
@@ -3474,7 +3465,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3600,9 +3591,6 @@
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
-      <c r="K28" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -3668,7 +3656,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>33</v>
       </c>
@@ -3694,7 +3682,7 @@
       </c>
       <c r="J33" s="24"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -3708,7 +3696,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>35</v>
       </c>
@@ -3734,7 +3722,7 @@
       </c>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>36</v>
       </c>
@@ -3766,7 +3754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3780,7 +3768,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
@@ -3806,7 +3794,7 @@
       </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -3820,7 +3808,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -3834,7 +3822,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>41</v>
       </c>
@@ -3860,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>59</v>
       </c>
@@ -3874,7 +3862,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -3888,7 +3876,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -3902,7 +3890,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
@@ -3918,12 +3906,9 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="56"/>
-      <c r="K45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="50"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
@@ -3933,9 +3918,7 @@
       <c r="C46" s="27">
         <v>-3</v>
       </c>
-      <c r="D46" s="28">
-        <v>1</v>
-      </c>
+      <c r="D46" s="28"/>
       <c r="E46" s="26">
         <v>1</v>
       </c>
@@ -3952,11 +3935,8 @@
       <c r="J46" s="28">
         <v>3</v>
       </c>
-      <c r="K46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -3970,7 +3950,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>48</v>
       </c>
@@ -3992,7 +3972,7 @@
       <c r="I48" s="23"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
@@ -4002,7 +3982,7 @@
       <c r="C49" s="27">
         <v>-1</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D49" s="50">
         <v>1</v>
       </c>
       <c r="E49" s="26">
@@ -4019,11 +3999,8 @@
         <v>-1</v>
       </c>
       <c r="J49" s="28"/>
-      <c r="K49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -4037,7 +4014,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -4051,7 +4028,7 @@
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>52</v>
       </c>
@@ -4077,7 +4054,7 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>53</v>
       </c>

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inesn\Documents\Mines\2A\TR\econometrics\data_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F58EB71-3AF6-314D-A42E-91221E681DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B8C01C-EF92-4EDE-AB3B-66F3C4FD8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
   <si>
     <t>State</t>
   </si>
@@ -221,6 +221,21 @@
   </si>
   <si>
     <t>1 fermeture en 2016</t>
+  </si>
+  <si>
+    <t>Laisse tomber</t>
+  </si>
+  <si>
+    <t>A faire</t>
+  </si>
+  <si>
+    <t>A faire +++</t>
+  </si>
+  <si>
+    <t>A faire ++</t>
+  </si>
+  <si>
+    <t>A faire +</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1058,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
@@ -1054,7 +1069,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="52">
         <v>2016</v>
@@ -1067,7 +1082,7 @@
       <c r="F1" s="53"/>
       <c r="G1" s="54"/>
     </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1101,7 +1116,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1127,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1142,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1176,7 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1206,7 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1217,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1228,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1247,7 @@
       </c>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1281,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1292,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
@@ -1338,7 +1353,7 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1357,7 +1372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>20</v>
       </c>
@@ -1380,7 +1395,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1406,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -1402,7 +1417,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>23</v>
       </c>
@@ -1421,7 +1436,7 @@
       </c>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1432,7 +1447,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1458,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1454,7 +1469,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1484,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1497,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1508,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1519,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1530,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>32</v>
       </c>
@@ -1530,7 +1545,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>33</v>
       </c>
@@ -1549,7 +1564,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -1560,7 +1575,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -1617,7 +1632,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
@@ -1636,7 +1651,7 @@
       </c>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -1647,7 +1662,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -1658,7 +1673,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -1669,7 +1684,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -1680,7 +1695,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -1691,7 +1706,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1702,7 +1717,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
@@ -1715,7 +1730,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -1747,7 +1762,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>48</v>
       </c>
@@ -1762,7 +1777,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
         <v>49</v>
       </c>
@@ -1781,7 +1796,7 @@
       </c>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1792,7 +1807,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1803,7 +1818,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>52</v>
       </c>
@@ -1822,7 +1837,7 @@
       </c>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="13" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1865,7 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
@@ -1863,7 +1878,7 @@
     <col min="9" max="9" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="55" t="s">
         <v>58</v>
       </c>
@@ -1875,7 +1890,7 @@
       <c r="H1" s="56"/>
       <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="52" t="s">
         <v>56</v>
@@ -1890,7 +1905,7 @@
       <c r="H2" s="53"/>
       <c r="I2" s="54"/>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
@@ -2005,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>8</v>
       </c>
@@ -2028,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>11</v>
       </c>
@@ -2089,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>14</v>
       </c>
@@ -2154,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>54</v>
       </c>
@@ -2217,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
         <v>17</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>18</v>
       </c>
@@ -2257,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
         <v>20</v>
       </c>
@@ -2299,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
         <v>21</v>
       </c>
@@ -2320,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
         <v>22</v>
       </c>
@@ -2339,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
         <v>23</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
         <v>24</v>
       </c>
@@ -2377,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
         <v>25</v>
       </c>
@@ -2396,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
         <v>26</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
         <v>27</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
         <v>28</v>
       </c>
@@ -2459,7 +2474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="38" t="s">
         <v>29</v>
       </c>
@@ -2478,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="38" t="s">
         <v>30</v>
       </c>
@@ -2497,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="38" t="s">
         <v>31</v>
       </c>
@@ -2516,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>32</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="38" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="38" t="s">
         <v>34</v>
       </c>
@@ -2577,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="38" t="s">
         <v>35</v>
       </c>
@@ -2596,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="38" t="s">
         <v>36</v>
       </c>
@@ -2619,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="38" t="s">
         <v>37</v>
       </c>
@@ -2638,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="38" t="s">
         <v>38</v>
       </c>
@@ -2657,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
         <v>39</v>
       </c>
@@ -2680,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="38" t="s">
         <v>40</v>
       </c>
@@ -2699,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
         <v>41</v>
       </c>
@@ -2720,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
         <v>42</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
         <v>43</v>
       </c>
@@ -2762,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
         <v>44</v>
       </c>
@@ -2783,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
         <v>45</v>
       </c>
@@ -2806,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>46</v>
       </c>
@@ -2831,7 +2846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
         <v>47</v>
       </c>
@@ -2850,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
         <v>48</v>
       </c>
@@ -2871,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
         <v>49</v>
       </c>
@@ -2894,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
         <v>50</v>
       </c>
@@ -2913,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
         <v>51</v>
       </c>
@@ -2932,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
         <v>52</v>
       </c>
@@ -2951,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="41" t="s">
         <v>53</v>
       </c>
@@ -2970,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="38" t="s">
         <v>55</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I56">
         <f>E55+I55</f>
         <v>115</v>
@@ -3004,13 +3019,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
@@ -3024,7 +3039,7 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="52">
         <v>2015</v>
@@ -3042,7 +3057,7 @@
       <c r="I1" s="53"/>
       <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3103,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3102,7 +3117,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3137,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
@@ -3140,7 +3155,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>8</v>
       </c>
@@ -3167,8 +3182,11 @@
         <v>-7</v>
       </c>
       <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3206,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3202,7 +3220,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -3216,7 +3234,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -3230,7 +3248,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
@@ -3288,8 +3306,11 @@
       <c r="K13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3303,7 +3324,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
@@ -3318,8 +3339,11 @@
       <c r="H15" s="26"/>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>54</v>
       </c>
@@ -3346,8 +3370,11 @@
       <c r="J16" s="28">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
@@ -3373,7 +3400,7 @@
       </c>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
@@ -3399,7 +3426,7 @@
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
@@ -3422,8 +3449,11 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
@@ -3449,7 +3479,7 @@
       </c>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>21</v>
       </c>
@@ -3467,8 +3497,11 @@
       <c r="K21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -3482,7 +3515,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -3508,7 +3541,7 @@
       </c>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
@@ -3526,7 +3559,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>25</v>
       </c>
@@ -3544,7 +3577,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>26</v>
       </c>
@@ -3562,7 +3595,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3576,7 +3609,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>28</v>
       </c>
@@ -3591,8 +3624,11 @@
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3606,7 +3642,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -3620,7 +3656,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3634,7 +3670,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>32</v>
       </c>
@@ -3656,7 +3692,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>33</v>
       </c>
@@ -3682,7 +3718,7 @@
       </c>
       <c r="J33" s="24"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -3696,7 +3732,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>35</v>
       </c>
@@ -3722,7 +3758,7 @@
       </c>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +3790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3768,7 +3804,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
@@ -3794,7 +3830,7 @@
       </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -3808,7 +3844,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -3822,7 +3858,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
         <v>41</v>
       </c>
@@ -3848,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>59</v>
       </c>
@@ -3862,7 +3898,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -3876,7 +3912,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -3890,7 +3926,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
@@ -3907,8 +3943,11 @@
       <c r="H45" s="26"/>
       <c r="I45" s="27"/>
       <c r="J45" s="50"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
@@ -3935,8 +3974,11 @@
       <c r="J46" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -3950,7 +3992,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>48</v>
       </c>
@@ -3972,7 +4014,7 @@
       <c r="I48" s="23"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
@@ -3999,8 +4041,11 @@
         <v>-1</v>
       </c>
       <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -4014,7 +4059,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -4028,7 +4073,7 @@
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>52</v>
       </c>
@@ -4054,7 +4099,7 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="13" t="s">
         <v>53</v>
       </c>

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/Mines/S3/TR/econometrics/data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F58EB71-3AF6-314D-A42E-91221E681DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99C9098-0537-4149-8155-368C25624B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
   <si>
     <t>State</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>1 ouvert avant qui a en fait ouvert après</t>
-  </si>
-  <si>
-    <t>1 fermeture en 2016</t>
   </si>
 </sst>
 </file>
@@ -562,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,9 +697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1056,16 +1050,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="52">
+      <c r="B1" s="51">
         <v>2016</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="52">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="51">
         <v>2017</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1864,31 +1858,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3007,7 +3001,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3024,25 +3018,25 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="52">
+      <c r="B1" s="51">
         <v>2015</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="52">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="51">
         <v>2016</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="52">
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="51">
         <v>2017</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3082,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3102,7 +3096,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3116,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
@@ -3140,35 +3134,33 @@
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="10">
         <v>19</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="11">
         <v>-17</v>
       </c>
-      <c r="D7" s="50">
-        <v>1</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="12"/>
+      <c r="E7" s="10">
         <v>14</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="11">
         <v>-12</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="26">
+      <c r="G7" s="12"/>
+      <c r="H7" s="10">
         <v>9</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="11">
         <v>-7</v>
       </c>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3202,7 +3194,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -3216,7 +3208,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -3230,7 +3222,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
@@ -3258,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>14</v>
       </c>
@@ -3268,9 +3260,7 @@
       <c r="C13" s="27">
         <v>-1</v>
       </c>
-      <c r="D13" s="50">
-        <v>-2</v>
-      </c>
+      <c r="D13" s="28"/>
       <c r="E13" s="26">
         <v>1</v>
       </c>
@@ -3278,18 +3268,13 @@
         <v>-1</v>
       </c>
       <c r="G13" s="50">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50">
-        <v>-1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3303,11 +3288,11 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="26">
         <v>1</v>
       </c>
       <c r="C15" s="27"/>
@@ -3319,7 +3304,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>54</v>
       </c>

--- a/data_collection/errors_1617.xlsx
+++ b/data_collection/errors_1617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inesn\Documents\Mines\2A\TR\econometrics\data_collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B8C01C-EF92-4EDE-AB3B-66F3C4FD8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE49A22-5C6B-4B0F-949B-BF3CA7A633B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{B9384D9D-633D-7741-83A9-0F3C7C0EABE7}"/>
   </bookViews>
@@ -3021,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B9B2D1-7B26-9F4E-B2E9-43989EF2F158}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
